--- a/data/unchecked/manual_collect/kuwait/KuwaitCaseStatistics_20200225.xlsx
+++ b/data/unchecked/manual_collect/kuwait/KuwaitCaseStatistics_20200225.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\24日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\25日\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10290,7 +10290,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://baijiahao.baidu.com/s?id=1659499255238096430&amp;wfr=spider&amp;for=pc</t>
+    <t>https://baijiahao.baidu.com/s?id=1659559912331290423&amp;wfr=spider&amp;for=pc</t>
   </si>
 </sst>
 </file>
@@ -10793,8 +10793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10975,12 +10975,12 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="20"/>
@@ -10988,18 +10988,17 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="19"/>
-      <c r="T2" s="22">
-        <v>43886.431944444441</v>
-      </c>
       <c r="U2" s="24"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="25"/>
+      <c r="W2" s="22">
+        <v>43886.848611111112</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="25" t="s">
         <v>3295</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
       <c r="Z2" s="22">
-        <v>43886.598611111112</v>
+        <v>43886.848611111112</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>3291</v>
@@ -11048,7 +11047,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="Y2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/unchecked/manual_collect/kuwait/KuwaitCaseStatistics_20200225.xlsx
+++ b/data/unchecked/manual_collect/kuwait/KuwaitCaseStatistics_20200225.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\25日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\kuwait\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10793,8 +10793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10963,10 +10963,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="22">
-        <v>43885.5</v>
+        <v>43886</v>
       </c>
       <c r="D2" s="22">
-        <v>43886.5</v>
+        <v>43887</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>3294</v>
